--- a/back-end/excelSheets/excelFormats/industrial_collaboration_mou.xlsx
+++ b/back-end/excelSheets/excelFormats/industrial_collaboration_mou.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>slNo</t>
   </si>
@@ -103,6 +103,42 @@
   </si>
   <si>
     <t>industry12</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>14/05/2013</t>
+  </si>
+  <si>
+    <t>17/07/2013</t>
+  </si>
+  <si>
+    <t>19/09/2013</t>
+  </si>
+  <si>
+    <t>22/11/2013</t>
+  </si>
+  <si>
+    <t>25/01/2014</t>
+  </si>
+  <si>
+    <t>30/03/2014</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>13/02/2015</t>
   </si>
 </sst>
 </file>
@@ -140,7 +176,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D14" sqref="D14:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,7 +482,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,7 +496,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -477,8 +513,8 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1">
-        <v>41344</v>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -494,8 +530,8 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
-        <v>41408</v>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -511,8 +547,8 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
-        <v>41472</v>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -528,8 +564,8 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
-        <v>41536</v>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -545,8 +581,8 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
-        <v>41600</v>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -562,8 +598,8 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
-        <v>41664</v>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -579,8 +615,8 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1">
-        <v>41728</v>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -596,8 +632,8 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1">
-        <v>41792</v>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -613,8 +649,8 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1">
-        <v>41856</v>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -630,8 +666,8 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
-        <v>41920</v>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -647,8 +683,8 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1">
-        <v>41984</v>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -664,42 +700,12 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1">
-        <v>42048</v>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
